--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/78.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/78.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1406883019903159</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.312021619275906</v>
+        <v>-1.318004896352449</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.1703092736761212</v>
+        <v>-0.1682272450984854</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1342928073695854</v>
+        <v>-0.1299769052128593</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.151992031755021</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.385431377238704</v>
+        <v>-1.388173347553431</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.238820570293921</v>
+        <v>-0.2363034473851944</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.136363155562494</v>
+        <v>-0.1339745168857673</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1678086180756509</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.49036211343613</v>
+        <v>-1.492217834559675</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2838061120229089</v>
+        <v>-0.282350444076273</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.14109663147322</v>
+        <v>-0.1388598377979478</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.181371264399726</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.648270694612179</v>
+        <v>-1.645452801796725</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2914859649810887</v>
+        <v>-0.2924598170577248</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1502365325223084</v>
+        <v>-0.1490845545785815</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1870031498109596</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.74372863879579</v>
+        <v>-1.739768988373245</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.2906683380501798</v>
+        <v>-0.291656790607725</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1651655242518499</v>
+        <v>-0.1663408629650314</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1831028866286741</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.584622818185196</v>
+        <v>-1.580301075836106</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.223564527792016</v>
+        <v>-0.2244989585701976</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.169306220637667</v>
+        <v>-0.1725460673513934</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.174007453495017</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.422630482498876</v>
+        <v>-1.420904705655422</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1497123752576722</v>
+        <v>-0.1485822980353089</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1509826170967628</v>
+        <v>-0.1526879532669441</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1634361120118693</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.153565520065766</v>
+        <v>-1.150991455281494</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.009203187180982659</v>
+        <v>-0.007125538747619582</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1266640560945875</v>
+        <v>-0.1294950893428594</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.1534604001941937</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.7806823780805028</v>
+        <v>-0.7795011991749576</v>
       </c>
       <c r="F10" t="n">
-        <v>0.07678926522926698</v>
+        <v>0.07918374409835724</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1140448604448636</v>
+        <v>-0.1162918744567721</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.1447253111228896</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.4006917219886957</v>
+        <v>-0.4037052612483313</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1148673194401658</v>
+        <v>0.1212272889241641</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.07095008099360245</v>
+        <v>-0.07289486505069283</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.1351557746882644</v>
       </c>
       <c r="E12" t="n">
-        <v>0.07197840676972281</v>
+        <v>0.0655483549773609</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1286165923122531</v>
+        <v>0.134886038814615</v>
       </c>
       <c r="G12" t="n">
-        <v>0.02917709698473431</v>
+        <v>0.02796525706928009</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.119547129373904</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6133394180611229</v>
+        <v>0.6058902527013067</v>
       </c>
       <c r="F13" t="n">
-        <v>0.04619833762854792</v>
+        <v>0.0546374155940002</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1838604319279655</v>
+        <v>0.1799606434771484</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.09391854978818058</v>
       </c>
       <c r="E14" t="n">
-        <v>1.178851084824244</v>
+        <v>1.170257241761155</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.09858003106595865</v>
+        <v>-0.09171050479823323</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3133097557160217</v>
+        <v>0.3088128075960229</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-0.05775513993866118</v>
       </c>
       <c r="E15" t="n">
-        <v>1.825364759622888</v>
+        <v>1.817389976950345</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.2632194339410963</v>
+        <v>-0.2592364227490974</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4946316680778821</v>
+        <v>0.4900252163510651</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-0.0142249667831638</v>
       </c>
       <c r="E16" t="n">
-        <v>2.458340868522627</v>
+        <v>2.445785914988904</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.4997837258705782</v>
+        <v>-0.496140905883761</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6147074831223044</v>
+        <v>0.607902198970579</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.03043855649104102</v>
       </c>
       <c r="E17" t="n">
-        <v>3.071165393671645</v>
+        <v>3.057182513105012</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.6371888517059958</v>
+        <v>-0.6310099281852702</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8005307237484363</v>
+        <v>0.7941838946972561</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.07303423169083616</v>
       </c>
       <c r="E18" t="n">
-        <v>3.676841523367573</v>
+        <v>3.658858111031851</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.7607556417357808</v>
+        <v>-0.7543679313380552</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9402777667216715</v>
+        <v>0.9357034360528546</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.1136172928954613</v>
       </c>
       <c r="E19" t="n">
-        <v>4.211019098051702</v>
+        <v>4.192883840714526</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.9184101745440112</v>
+        <v>-0.9122473115522857</v>
       </c>
       <c r="G19" t="n">
-        <v>1.093740501460903</v>
+        <v>1.088221519677268</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.1518678234203934</v>
       </c>
       <c r="E20" t="n">
-        <v>4.755552793844647</v>
+        <v>4.736268478659925</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.13448415156568</v>
+        <v>-1.127614625297955</v>
       </c>
       <c r="G20" t="n">
-        <v>1.252412687788497</v>
+        <v>1.247382822115316</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.1869727203061458</v>
       </c>
       <c r="E21" t="n">
-        <v>5.218554484145068</v>
+        <v>5.196869849898892</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.292668681830911</v>
+        <v>-1.284325967039458</v>
       </c>
       <c r="G21" t="n">
-        <v>1.429887373430813</v>
+        <v>1.423642747745996</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.2176892498915949</v>
       </c>
       <c r="E22" t="n">
-        <v>5.621981832192142</v>
+        <v>5.600771713575511</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.49809014798131</v>
+        <v>-1.491522851668403</v>
       </c>
       <c r="G22" t="n">
-        <v>1.543908369042237</v>
+        <v>1.539014287841511</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.2430744206893558</v>
       </c>
       <c r="E23" t="n">
-        <v>5.897379023195522</v>
+        <v>5.873060462193347</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.680583018912079</v>
+        <v>-1.671844631087991</v>
       </c>
       <c r="G23" t="n">
-        <v>1.706718331659466</v>
+        <v>1.700243018376286</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.2627773548791443</v>
       </c>
       <c r="E24" t="n">
-        <v>6.200521508070441</v>
+        <v>6.177629414053083</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.851113715834034</v>
+        <v>-1.844067523747308</v>
       </c>
       <c r="G24" t="n">
-        <v>1.817743308588345</v>
+        <v>1.813465367681983</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.2770861929463867</v>
       </c>
       <c r="E25" t="n">
-        <v>6.410299757724112</v>
+        <v>6.38953787387139</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.987116465478133</v>
+        <v>-1.979523485381363</v>
       </c>
       <c r="G25" t="n">
-        <v>1.917914288009409</v>
+        <v>1.915678954382228</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.2861743023089257</v>
       </c>
       <c r="E26" t="n">
-        <v>6.508079178372268</v>
+        <v>6.488721860783</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.091026628060014</v>
+        <v>-2.085771914980834</v>
       </c>
       <c r="G26" t="n">
-        <v>1.982600258629028</v>
+        <v>1.979956111536392</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.2908373977698084</v>
       </c>
       <c r="E27" t="n">
-        <v>6.562238202256435</v>
+        <v>6.542266204420894</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.178976274936127</v>
+        <v>-2.173398891228856</v>
       </c>
       <c r="G27" t="n">
-        <v>2.063978959072006</v>
+        <v>2.061917371167643</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.2918948473461273</v>
       </c>
       <c r="E28" t="n">
-        <v>6.672073239991223</v>
+        <v>6.652555317111956</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.236142997887566</v>
+        <v>-2.232420605279795</v>
       </c>
       <c r="G28" t="n">
-        <v>2.095685363414179</v>
+        <v>2.092173947755544</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.2889927422656441</v>
       </c>
       <c r="E29" t="n">
-        <v>6.608683792076331</v>
+        <v>6.589659365451791</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.296638630486278</v>
+        <v>-2.292949818984597</v>
       </c>
       <c r="G29" t="n">
-        <v>2.138718820845622</v>
+        <v>2.13787929319335</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.2819003633006217</v>
       </c>
       <c r="E30" t="n">
-        <v>6.578579060489885</v>
+        <v>6.556855004945255</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.330051831046723</v>
+        <v>-2.328020174128224</v>
       </c>
       <c r="G30" t="n">
-        <v>2.122861238530263</v>
+        <v>2.122284519534354</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.2705250753339817</v>
       </c>
       <c r="E31" t="n">
-        <v>6.488932107708091</v>
+        <v>6.467703008466279</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.31127196247741</v>
+        <v>-2.309476103325592</v>
       </c>
       <c r="G31" t="n">
-        <v>2.103099487619814</v>
+        <v>2.104372649555086</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.2549811559044884</v>
       </c>
       <c r="E32" t="n">
-        <v>6.311166872495684</v>
+        <v>6.292038782456689</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.317897660713954</v>
+        <v>-2.315299505136182</v>
       </c>
       <c r="G32" t="n">
-        <v>2.043363080028375</v>
+        <v>2.041951213524467</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.2352406169832106</v>
       </c>
       <c r="E33" t="n">
-        <v>6.131342969475096</v>
+        <v>6.10922470094592</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.336489913103585</v>
+        <v>-2.33735791169363</v>
       </c>
       <c r="G33" t="n">
-        <v>1.980297762789665</v>
+        <v>1.976727945207393</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.211339372830085</v>
       </c>
       <c r="E34" t="n">
-        <v>5.888963305999525</v>
+        <v>5.86986879706662</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.386101617208617</v>
+        <v>-2.381580578295118</v>
       </c>
       <c r="G34" t="n">
-        <v>1.894652801825051</v>
+        <v>1.892991267097597</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.1842301893842682</v>
       </c>
       <c r="E35" t="n">
-        <v>5.665235756885312</v>
+        <v>5.644866625969045</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.37274582729703</v>
+        <v>-2.369254852311667</v>
       </c>
       <c r="G35" t="n">
-        <v>1.82621888775607</v>
+        <v>1.824665396587343</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.1546717383737484</v>
       </c>
       <c r="E36" t="n">
-        <v>5.474830885349909</v>
+        <v>5.454902688957096</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.337500266382494</v>
+        <v>-2.330695712254814</v>
       </c>
       <c r="G36" t="n">
-        <v>1.737059591036639</v>
+        <v>1.736605516080367</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.123288878984487</v>
       </c>
       <c r="E37" t="n">
-        <v>5.110157593779824</v>
+        <v>5.092619496111829</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.275343829080374</v>
+        <v>-2.270457048120103</v>
       </c>
       <c r="G37" t="n">
-        <v>1.651697879401662</v>
+        <v>1.649805657075845</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.09027535134815591</v>
       </c>
       <c r="E38" t="n">
-        <v>4.841124752404715</v>
+        <v>4.818688193391721</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.173163093462174</v>
+        <v>-2.165943155652631</v>
       </c>
       <c r="G38" t="n">
-        <v>1.556152332332597</v>
+        <v>1.550595389298598</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.05657063602564812</v>
       </c>
       <c r="E39" t="n">
-        <v>4.547033105645339</v>
+        <v>4.524926517500891</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.15614842303477</v>
+        <v>-2.148214521708772</v>
       </c>
       <c r="G39" t="n">
-        <v>1.4446645201589</v>
+        <v>1.438916310824992</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.02313104296780536</v>
       </c>
       <c r="E40" t="n">
-        <v>4.275620385882049</v>
+        <v>4.256271828581326</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.127467238336959</v>
+        <v>-2.119209936358825</v>
       </c>
       <c r="G40" t="n">
-        <v>1.384808388624007</v>
+        <v>1.382343827446553</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-0.009545854311244877</v>
       </c>
       <c r="E41" t="n">
-        <v>3.977091652974401</v>
+        <v>3.96111872685986</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.037537766249574</v>
+        <v>-2.029485601028213</v>
       </c>
       <c r="G41" t="n">
-        <v>1.26442012328813</v>
+        <v>1.26210594706404</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-0.04135248622269859</v>
       </c>
       <c r="E42" t="n">
-        <v>3.718912809107107</v>
+        <v>3.706125707926929</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.942719323129782</v>
+        <v>-1.934604375840511</v>
       </c>
       <c r="G42" t="n">
-        <v>1.159436825359431</v>
+        <v>1.157278874281068</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-0.07251690438318389</v>
       </c>
       <c r="E43" t="n">
-        <v>3.450249359898998</v>
+        <v>3.435720421346365</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.875700195660891</v>
+        <v>-1.867210016012256</v>
       </c>
       <c r="G43" t="n">
-        <v>1.066690190480638</v>
+        <v>1.064431496084002</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-0.1027859040275642</v>
       </c>
       <c r="E44" t="n">
-        <v>3.182304254351615</v>
+        <v>3.167620550701346</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.834779427816992</v>
+        <v>-1.826762303749813</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9342667487314004</v>
+        <v>0.9309057180261285</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-0.1320680725509014</v>
       </c>
       <c r="E45" t="n">
-        <v>2.922858088741412</v>
+        <v>2.909714735827052</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.749152717453516</v>
+        <v>-1.743242442781517</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8118081352026151</v>
+        <v>0.8101027990324337</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-0.1600430858419346</v>
       </c>
       <c r="E46" t="n">
-        <v>2.672189732253752</v>
+        <v>2.660442185314301</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.698848220529347</v>
+        <v>-1.694681243277894</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7715312485668077</v>
+        <v>0.7694667405662629</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-0.1863024949719442</v>
       </c>
       <c r="E47" t="n">
-        <v>2.371783377501196</v>
+        <v>2.360514726335563</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.651795250703632</v>
+        <v>-1.647891082108543</v>
       </c>
       <c r="G47" t="n">
-        <v>0.6629533122382913</v>
+        <v>0.6624145544927461</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-0.2104428775107641</v>
       </c>
       <c r="E48" t="n">
-        <v>2.178118218578794</v>
+        <v>2.168756390219887</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.617779050281642</v>
+        <v>-1.613606232837825</v>
       </c>
       <c r="G48" t="n">
-        <v>0.6004369730817627</v>
+        <v>0.600209205579581</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.2324728692486026</v>
       </c>
       <c r="E49" t="n">
-        <v>1.982077561412483</v>
+        <v>1.971325767271031</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.56780598427411</v>
+        <v>-1.564845006745747</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5385878759027793</v>
+        <v>0.5390667716765974</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.2526048750949057</v>
       </c>
       <c r="E50" t="n">
-        <v>1.868017144502604</v>
+        <v>1.85872393840397</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.493257388800402</v>
+        <v>-1.491749159122494</v>
       </c>
       <c r="G50" t="n">
-        <v>0.4770775098808868</v>
+        <v>0.4778469552247956</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.2711386451270623</v>
       </c>
       <c r="E51" t="n">
-        <v>1.690367253089379</v>
+        <v>1.681874153344563</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.433906433904964</v>
+        <v>-1.4339648358286</v>
       </c>
       <c r="G51" t="n">
-        <v>0.4193953899533568</v>
+        <v>0.4200363510652657</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.2882601592234011</v>
       </c>
       <c r="E52" t="n">
-        <v>1.572040575657865</v>
+        <v>1.563366429949777</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.392861561973338</v>
+        <v>-1.393984338955247</v>
       </c>
       <c r="G52" t="n">
-        <v>0.3384999654284694</v>
+        <v>0.3389730210099238</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.3045694239798996</v>
       </c>
       <c r="E53" t="n">
-        <v>1.39161075267955</v>
+        <v>1.38571361844037</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.355640555991803</v>
+        <v>-1.356580826962348</v>
       </c>
       <c r="G53" t="n">
-        <v>0.2725203922003053</v>
+        <v>0.2724269491224872</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.3205444563529155</v>
       </c>
       <c r="E54" t="n">
-        <v>1.343703654720654</v>
+        <v>1.333775327702475</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.335967868014899</v>
+        <v>-1.337695104906444</v>
       </c>
       <c r="G54" t="n">
-        <v>0.2167772161375021</v>
+        <v>0.2201280265061376</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.3364074524980224</v>
       </c>
       <c r="E55" t="n">
-        <v>1.21854833236796</v>
+        <v>1.210814457630417</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.300915033448363</v>
+        <v>-1.301706379513636</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1660478452188794</v>
+        <v>0.1647016808790616</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.3521929001742107</v>
       </c>
       <c r="E56" t="n">
-        <v>1.189410152617695</v>
+        <v>1.180743307150061</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.246461079849832</v>
+        <v>-1.248629251264832</v>
       </c>
       <c r="G56" t="n">
-        <v>0.106949478643168</v>
+        <v>0.1047594065068049</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.3684102512901942</v>
       </c>
       <c r="E57" t="n">
-        <v>1.099580693824538</v>
+        <v>1.089945836472631</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.239927364643016</v>
+        <v>-1.240524524312197</v>
       </c>
       <c r="G57" t="n">
-        <v>0.06468108641136114</v>
+        <v>0.06139743825490748</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.3854810059512268</v>
       </c>
       <c r="E58" t="n">
-        <v>1.046783894809188</v>
+        <v>1.036432153844646</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.201601102256662</v>
+        <v>-1.202910765394207</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.01287812822579986</v>
+        <v>-0.01557629709779913</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.403763971154419</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9375693775130358</v>
+        <v>0.9276936122261294</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.115741514222686</v>
+        <v>-1.118927339157048</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.08864878395159768</v>
+        <v>-0.09192805196377862</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.4231956410522165</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9186267135815864</v>
+        <v>0.904176617625863</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.097766862175509</v>
+        <v>-1.099975914937053</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1144040322752271</v>
+        <v>-0.1187272346724078</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.4433174425157867</v>
       </c>
       <c r="E61" t="n">
-        <v>0.7854644874983494</v>
+        <v>0.7711852171692624</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.066831363225335</v>
+        <v>-1.070028868544425</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1426019410549468</v>
+        <v>-0.1474668212938546</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.4635073711897338</v>
       </c>
       <c r="E62" t="n">
-        <v>0.7458723634171782</v>
+        <v>0.7315726524148184</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.061418964952336</v>
+        <v>-1.064874898783517</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2193479089054717</v>
+        <v>-0.2228520243236526</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.4840140511703099</v>
       </c>
       <c r="E63" t="n">
-        <v>0.6562181103949296</v>
+        <v>0.6407196999099337</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.096574002885236</v>
+        <v>-1.099612362962417</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2337206223123769</v>
+        <v>-0.2377036335043758</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.5055273124006461</v>
       </c>
       <c r="E64" t="n">
-        <v>0.5722113233883158</v>
+        <v>0.5517954709331394</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.081947241110513</v>
+        <v>-1.085644082876694</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2821241366221821</v>
+        <v>-0.2879657890339078</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.528813875877723</v>
       </c>
       <c r="E65" t="n">
-        <v>0.4894119961528834</v>
+        <v>0.4669272555528895</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.050252517153067</v>
+        <v>-1.053431041846975</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3135735725003555</v>
+        <v>-0.3203700963635355</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.5549537868108237</v>
       </c>
       <c r="E66" t="n">
-        <v>0.4397075789940786</v>
+        <v>0.4181076275371753</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.066412329423244</v>
+        <v>-1.06913677916088</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3428854979734385</v>
+        <v>-0.3490775619269823</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.5842819743684</v>
       </c>
       <c r="E67" t="n">
-        <v>0.4155452431376306</v>
+        <v>0.3901214257306374</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.083954807235512</v>
+        <v>-1.087428261643784</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3731289341285213</v>
+        <v>-0.3820527480601553</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.6151879408543336</v>
       </c>
       <c r="E68" t="n">
-        <v>0.3365216002652882</v>
+        <v>0.3108203737210223</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.09993795368669</v>
+        <v>-1.102941272609689</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3855043017470635</v>
+        <v>-0.3927680409993342</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.6454216420138932</v>
       </c>
       <c r="E69" t="n">
-        <v>0.2348569916472245</v>
+        <v>0.206720404887323</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.14161648648977</v>
+        <v>-1.144503001565496</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.4068414445476032</v>
+        <v>-0.4156703553533281</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.6726998998722514</v>
       </c>
       <c r="E70" t="n">
-        <v>0.172369853452514</v>
+        <v>0.1432988359144309</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.190409833639847</v>
+        <v>-1.192407179428211</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4247795953925074</v>
+        <v>-0.4328828622970507</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.6949734287513103</v>
       </c>
       <c r="E71" t="n">
-        <v>0.1177786553334378</v>
+        <v>0.09205114792353561</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.280015905075096</v>
+        <v>-1.27929902146246</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4869104818530362</v>
+        <v>-0.4936223229269435</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.7102134969617208</v>
       </c>
       <c r="E72" t="n">
-        <v>0.03442450982346017</v>
+        <v>0.005782746424104225</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.314459899587723</v>
+        <v>-1.315277526518632</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4814645024739467</v>
+        <v>-0.487729568832036</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.7167907060689236</v>
       </c>
       <c r="E73" t="n">
-        <v>0.02045622973773665</v>
+        <v>-0.007876003466346652</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.304855703245726</v>
+        <v>-1.305487904069089</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.5310783966511152</v>
+        <v>-0.5377683370036589</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.7138401157436498</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0490994531851835</v>
+        <v>0.02201556109882714</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.345488841615715</v>
+        <v>-1.345836333061351</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.5191118424980276</v>
+        <v>-0.52350220710739</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.7019563235443977</v>
       </c>
       <c r="E75" t="n">
-        <v>0.05587115623081805</v>
+        <v>0.02766156706637108</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.396599285086065</v>
+        <v>-1.396272234313701</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4684160526854957</v>
+        <v>-0.4741744823560397</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.6823251581876295</v>
       </c>
       <c r="E76" t="n">
-        <v>0.1049302321334412</v>
+        <v>0.0786055650543574</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.342459241827079</v>
+        <v>-1.342345358075988</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4788787573049474</v>
+        <v>-0.4845671046671278</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.6561067715661897</v>
       </c>
       <c r="E77" t="n">
-        <v>0.2182737654306835</v>
+        <v>0.191800173446327</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.34144888854817</v>
+        <v>-1.340657542482898</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4248876389512347</v>
+        <v>-0.430447502081415</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.6242479208625862</v>
       </c>
       <c r="E78" t="n">
-        <v>0.2996831268835707</v>
+        <v>0.2757295779041227</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.307585993175725</v>
+        <v>-1.306666162878452</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4287596864883245</v>
+        <v>-0.4321732789248691</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.5877043409776733</v>
       </c>
       <c r="E79" t="n">
-        <v>0.3897476534193647</v>
+        <v>0.3674118377246435</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.315408930846814</v>
+        <v>-1.320708905416812</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.396737911758515</v>
+        <v>-0.4004040925147867</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.5467356666282884</v>
       </c>
       <c r="E80" t="n">
-        <v>0.4878395243589748</v>
+        <v>0.4693801363456161</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.33519842267099</v>
+        <v>-1.337451276875262</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3404121765074392</v>
+        <v>-0.3426504302308022</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.5015167723146219</v>
       </c>
       <c r="E81" t="n">
-        <v>0.5830361199343128</v>
+        <v>0.5673741840631352</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.284496792666095</v>
+        <v>-1.285683811764003</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.2891309074104529</v>
+        <v>-0.2914553039711796</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.4521950424463648</v>
       </c>
       <c r="E82" t="n">
-        <v>0.7143674457115503</v>
+        <v>0.702587777714099</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.216819183508204</v>
+        <v>-1.219997708202112</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2567441206579162</v>
+        <v>-0.2581837280755522</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.399674559537424</v>
       </c>
       <c r="E83" t="n">
-        <v>0.8670505147702366</v>
+        <v>0.8576726258823301</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.162690820633946</v>
+        <v>-1.164353815409491</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2138537479393822</v>
+        <v>-0.2150845684800183</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.3453565090732715</v>
       </c>
       <c r="E84" t="n">
-        <v>1.034103377139646</v>
+        <v>1.026458565335648</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.071062582592788</v>
+        <v>-1.073204473142152</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1673512162439402</v>
+        <v>-0.1659072286820315</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.2905708958945841</v>
       </c>
       <c r="E85" t="n">
-        <v>1.123839392854986</v>
+        <v>1.11973373762335</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.9974235970797173</v>
+        <v>-1.001924925343989</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1320574737424042</v>
+        <v>-0.1316179992670407</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.2360777316057256</v>
       </c>
       <c r="E86" t="n">
-        <v>1.284684130741852</v>
+        <v>1.284208155064215</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.9213361109181922</v>
+        <v>-0.9256607733634639</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.04812222909224494</v>
+        <v>-0.04688848845542708</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.182913555652387</v>
       </c>
       <c r="E87" t="n">
-        <v>1.385590974400734</v>
+        <v>1.382491292303734</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.8206161534149466</v>
+        <v>-0.8255905372606726</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.01828176621025295</v>
+        <v>-0.01758970341516223</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.1321191819447868</v>
       </c>
       <c r="E88" t="n">
-        <v>1.472303230519801</v>
+        <v>1.46957002049362</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.6942051897040714</v>
+        <v>-0.6985867940248884</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03212493408027897</v>
+        <v>0.03350759962236951</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.08478274195893919</v>
       </c>
       <c r="E89" t="n">
-        <v>1.568708745914412</v>
+        <v>1.567108533206776</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.5601669347662893</v>
+        <v>-0.5662567953534694</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0789924777984482</v>
+        <v>0.07935748982117538</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.04319647140785637</v>
       </c>
       <c r="E90" t="n">
-        <v>1.626577751997578</v>
+        <v>1.626704776181487</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.4341180629819595</v>
+        <v>-0.4382339385502311</v>
       </c>
       <c r="G90" t="n">
-        <v>0.09074148478599051</v>
+        <v>0.09215189124180831</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.009976233799161963</v>
       </c>
       <c r="E91" t="n">
-        <v>1.667432817677385</v>
+        <v>1.670287211695112</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.2719008798896394</v>
+        <v>-0.2778651763410014</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1037680338530779</v>
+        <v>0.1062880768579863</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.01258597396215291</v>
       </c>
       <c r="E92" t="n">
-        <v>1.696839646276378</v>
+        <v>1.699924727892467</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.115301961851136</v>
+        <v>-0.1193608955438622</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1053872271858957</v>
+        <v>0.103702331688987</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.02349370917963566</v>
       </c>
       <c r="E93" t="n">
-        <v>1.691963085652742</v>
+        <v>1.696095021750014</v>
       </c>
       <c r="F93" t="n">
-        <v>0.03982230761554963</v>
+        <v>0.0383067776971864</v>
       </c>
       <c r="G93" t="n">
-        <v>0.1000551315578971</v>
+        <v>0.09925794530026094</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.02343460595966411</v>
       </c>
       <c r="E94" t="n">
-        <v>1.639218848368666</v>
+        <v>1.644282295147937</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1462685737313392</v>
+        <v>0.1476556194177025</v>
       </c>
       <c r="G94" t="n">
-        <v>0.06116091046418026</v>
+        <v>0.06017099785854416</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.01538528629214094</v>
       </c>
       <c r="E95" t="n">
-        <v>1.546117421803781</v>
+        <v>1.553737412790234</v>
       </c>
       <c r="F95" t="n">
-        <v>0.2300213123701349</v>
+        <v>0.2322318251797707</v>
       </c>
       <c r="G95" t="n">
-        <v>0.01239384417973881</v>
+        <v>0.01171200172128445</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.002804808513865702</v>
       </c>
       <c r="E96" t="n">
-        <v>1.423277735723269</v>
+        <v>1.430764862333449</v>
       </c>
       <c r="F96" t="n">
-        <v>0.3077674131629322</v>
+        <v>0.311465714977204</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.0257937136379782</v>
+        <v>-0.02804072764988669</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.01053454257628861</v>
       </c>
       <c r="E97" t="n">
-        <v>1.267991400918492</v>
+        <v>1.276183730756581</v>
       </c>
       <c r="F97" t="n">
-        <v>0.3592122076461002</v>
+        <v>0.3615920860342814</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.04635703095033632</v>
+        <v>-0.04862156553933571</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.02217363877209459</v>
       </c>
       <c r="E98" t="n">
-        <v>1.1376324671698</v>
+        <v>1.144173482617071</v>
       </c>
       <c r="F98" t="n">
-        <v>0.3791856655297312</v>
+        <v>0.381092488336458</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.08261586523996295</v>
+        <v>-0.08573014781787121</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.02918082653701516</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9869934654383862</v>
+        <v>0.9909720964861124</v>
       </c>
       <c r="F99" t="n">
-        <v>0.3751033710675505</v>
+        <v>0.3764144942531865</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1235424732762247</v>
+        <v>-0.1261267583971331</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.03068424382270808</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8814611894275054</v>
+        <v>0.8834775158410504</v>
       </c>
       <c r="F100" t="n">
-        <v>0.3458819685761038</v>
+        <v>0.3461871186271037</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1371150803293119</v>
+        <v>-0.1404162490628565</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.02832419808898038</v>
       </c>
       <c r="E101" t="n">
-        <v>0.7432252962283608</v>
+        <v>0.7437231726273607</v>
       </c>
       <c r="F101" t="n">
-        <v>0.348853166441103</v>
+        <v>0.3477800310942851</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1306412270942228</v>
+        <v>-0.1331101684159494</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.02666807389638766</v>
       </c>
       <c r="E102" t="n">
-        <v>0.6277515527664826</v>
+        <v>0.629760578939573</v>
       </c>
       <c r="F102" t="n">
-        <v>0.3051787478977511</v>
+        <v>0.305132026358842</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.194652655495842</v>
+        <v>-0.1946614157843874</v>
       </c>
     </row>
   </sheetData>
